--- a/output/39482221000189.xlsx
+++ b/output/39482221000189.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -500,9 +505,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -540,9 +546,10 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -580,9 +587,10 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -620,9 +628,10 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,9 +669,10 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -700,9 +710,10 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -740,9 +751,10 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -780,9 +792,10 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -820,9 +833,10 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -860,9 +874,10 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -900,9 +915,10 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -915,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +967,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -981,9 +1002,10 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1011,9 +1033,10 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1041,9 +1064,10 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1071,9 +1095,10 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1101,9 +1126,10 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1131,9 +1157,10 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/39482221000189.xlsx
+++ b/output/39482221000189.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,11 +503,7 @@
           <t>0,000</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -544,11 +540,7 @@
           <t>0,000</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -585,11 +577,7 @@
           <t>0,000</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -626,11 +614,7 @@
           <t>0,000</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -667,11 +651,7 @@
           <t>0,000</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -708,11 +688,7 @@
           <t>0,000</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -749,11 +725,7 @@
           <t>0,000</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1002,7 +974,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(7851,80) e o relatório(8793,11)!</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -1033,7 +1005,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(7851,80) e o relatório(10730,13)!</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -1064,7 +1036,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(7851,80) e o relatório(10156,99)!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -1095,7 +1067,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(7851,80) e o relatório(5418,69)!</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
